--- a/teaching/traditional_assets/database/data/iceland/iceland_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/iceland/iceland_insurance_general.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08299999999999999</v>
+        <v>0.05105</v>
       </c>
       <c r="E2">
-        <v>0.22625</v>
+        <v>0.0321</v>
       </c>
       <c r="G2">
-        <v>0.04939722724532852</v>
+        <v>0.1790322580645161</v>
       </c>
       <c r="H2">
-        <v>0.04939722724532852</v>
+        <v>0.1790322580645161</v>
       </c>
       <c r="I2">
-        <v>0.1490427113115445</v>
+        <v>0.12</v>
       </c>
       <c r="J2">
-        <v>0.1322700232123461</v>
+        <v>0.1082318241903503</v>
       </c>
       <c r="K2">
-        <v>42.9</v>
+        <v>48.7</v>
       </c>
       <c r="L2">
-        <v>0.1292947558770344</v>
+        <v>0.1570967741935484</v>
       </c>
       <c r="M2">
-        <v>14.58</v>
+        <v>17.921</v>
       </c>
       <c r="N2">
-        <v>0.03339441136051306</v>
+        <v>0.02902186234817814</v>
       </c>
       <c r="O2">
-        <v>0.3398601398601399</v>
+        <v>0.3679876796714578</v>
       </c>
       <c r="P2">
-        <v>10.95</v>
+        <v>13.341</v>
       </c>
       <c r="Q2">
-        <v>0.02508016491067338</v>
+        <v>0.02160485829959514</v>
       </c>
       <c r="R2">
-        <v>0.2552447552447553</v>
+        <v>0.2739425051334702</v>
       </c>
       <c r="S2">
-        <v>3.63</v>
+        <v>4.58</v>
       </c>
       <c r="T2">
-        <v>0.2489711934156379</v>
+        <v>0.2555660956419843</v>
       </c>
       <c r="U2">
-        <v>27.3</v>
+        <v>35</v>
       </c>
       <c r="V2">
-        <v>0.06252863032524049</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="W2">
-        <v>0.1788727971226345</v>
+        <v>0.2029011559614899</v>
       </c>
       <c r="X2">
-        <v>0.05325483487783806</v>
+        <v>0.05765304454676771</v>
       </c>
       <c r="Y2">
-        <v>0.1256179622447964</v>
+        <v>0.1452481114147222</v>
       </c>
       <c r="Z2">
-        <v>1.412106327559037</v>
+        <v>1.288124324773539</v>
       </c>
       <c r="AA2">
-        <v>0.1890582938465293</v>
+        <v>0.135618051279294</v>
       </c>
       <c r="AB2">
-        <v>0.05215611881337717</v>
+        <v>0.04698921527015996</v>
       </c>
       <c r="AC2">
-        <v>0.1369021750331522</v>
+        <v>0.08862883600913406</v>
       </c>
       <c r="AD2">
-        <v>26.06</v>
+        <v>264.4</v>
       </c>
       <c r="AE2">
-        <v>3.868141934147716</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>29.92814193414772</v>
+        <v>264.4</v>
       </c>
       <c r="AG2">
-        <v>2.628141934147717</v>
+        <v>229.4</v>
       </c>
       <c r="AH2">
-        <v>0.06415077514953468</v>
+        <v>0.2998072343803153</v>
       </c>
       <c r="AI2">
-        <v>0.1100994978709674</v>
+        <v>0.4842490842490843</v>
       </c>
       <c r="AJ2">
-        <v>0.005983546324182814</v>
+        <v>0.2708702326130594</v>
       </c>
       <c r="AK2">
-        <v>0.01074780969323148</v>
+        <v>0.4489236790606654</v>
       </c>
       <c r="AL2">
-        <v>1.8</v>
+        <v>2.41</v>
       </c>
       <c r="AM2">
-        <v>1.8</v>
+        <v>2.41</v>
       </c>
       <c r="AN2">
-        <v>0.5077348712153685</v>
+        <v>6.448780487804878</v>
       </c>
       <c r="AO2">
-        <v>27.88888888888889</v>
+        <v>15.4356846473029</v>
       </c>
       <c r="AP2">
-        <v>0.05120488512932465</v>
+        <v>5.595121951219513</v>
       </c>
       <c r="AQ2">
-        <v>27.88888888888889</v>
+        <v>15.4356846473029</v>
       </c>
     </row>
     <row r="3">
@@ -725,103 +725,103 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.105</v>
+        <v>0.0601</v>
       </c>
       <c r="E3">
-        <v>0.464</v>
+        <v>-0.0103</v>
       </c>
       <c r="G3">
-        <v>0.04802414928649835</v>
+        <v>0.2267857142857143</v>
       </c>
       <c r="H3">
-        <v>0.04802414928649835</v>
+        <v>0.2267857142857143</v>
       </c>
       <c r="I3">
-        <v>0.1800219538968167</v>
+        <v>0.1589285714285714</v>
       </c>
       <c r="J3">
-        <v>0.1520610972277366</v>
+        <v>0.1351190476190476</v>
       </c>
       <c r="K3">
-        <v>27.8</v>
+        <v>22.7</v>
       </c>
       <c r="L3">
-        <v>0.1525795828759605</v>
+        <v>0.1351190476190476</v>
       </c>
       <c r="M3">
-        <v>8.91</v>
+        <v>17.921</v>
       </c>
       <c r="N3">
-        <v>0.04222748815165877</v>
+        <v>0.0624860529986053</v>
       </c>
       <c r="O3">
-        <v>0.3205035971223021</v>
+        <v>0.7894713656387665</v>
       </c>
       <c r="P3">
-        <v>5.28</v>
+        <v>13.341</v>
       </c>
       <c r="Q3">
-        <v>0.02502369668246445</v>
+        <v>0.04651673640167363</v>
       </c>
       <c r="R3">
-        <v>0.1899280575539568</v>
+        <v>0.5877092511013216</v>
       </c>
       <c r="S3">
-        <v>3.63</v>
+        <v>4.58</v>
       </c>
       <c r="T3">
-        <v>0.4074074074074074</v>
+        <v>0.2555660956419843</v>
       </c>
       <c r="U3">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="V3">
-        <v>0.05071090047393365</v>
+        <v>0.03661087866108786</v>
       </c>
       <c r="W3">
-        <v>0.2282430213464696</v>
+        <v>0.1769290724863601</v>
       </c>
       <c r="X3">
-        <v>0.05194984048399097</v>
+        <v>0.04615961871760139</v>
       </c>
       <c r="Y3">
-        <v>0.1762931808624786</v>
+        <v>0.1307694537687587</v>
       </c>
       <c r="Z3">
-        <v>1.682363804247461</v>
+        <v>1.387741615727738</v>
       </c>
       <c r="AA3">
-        <v>0.255822086010098</v>
+        <v>0.1875103254584503</v>
       </c>
       <c r="AB3">
-        <v>0.05169367838864219</v>
+        <v>0.04596228270772536</v>
       </c>
       <c r="AC3">
-        <v>0.2041284076214558</v>
+        <v>0.141548042750725</v>
       </c>
       <c r="AD3">
-        <v>3.46</v>
+        <v>2.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.46</v>
+        <v>2.3</v>
       </c>
       <c r="AG3">
-        <v>-7.239999999999999</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.01613354471696354</v>
+        <v>0.007955724662746454</v>
       </c>
       <c r="AI3">
-        <v>0.02625986642380084</v>
+        <v>0.01702442635085122</v>
       </c>
       <c r="AJ3">
-        <v>-0.03553199842952493</v>
+        <v>-0.02943287867910983</v>
       </c>
       <c r="AK3">
-        <v>-0.05980505534445728</v>
+        <v>-0.06581059390048154</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1035928143712575</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="AP3">
-        <v>-0.2167664670658682</v>
+        <v>-0.2897526501766784</v>
       </c>
     </row>
     <row r="4">
@@ -853,121 +853,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.061</v>
+        <v>0.042</v>
       </c>
       <c r="E4">
-        <v>-0.0115</v>
+        <v>0.0745</v>
       </c>
       <c r="G4">
-        <v>0.05106951871657754</v>
+        <v>0.1225352112676056</v>
       </c>
       <c r="H4">
-        <v>0.05106951871657754</v>
+        <v>0.1225352112676056</v>
       </c>
       <c r="I4">
-        <v>0.1113126444730645</v>
+        <v>0.07394366197183098</v>
       </c>
       <c r="J4">
-        <v>0.1035482439635236</v>
+        <v>0.07051833057166527</v>
       </c>
       <c r="K4">
-        <v>15.1</v>
+        <v>26</v>
       </c>
       <c r="L4">
-        <v>0.1009358288770053</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="M4">
-        <v>5.67</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.02513297872340426</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3754966887417219</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>5.67</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.02513297872340426</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3754966887417219</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="U4">
+        <v>24.5</v>
+      </c>
+      <c r="V4">
+        <v>0.07408527366192924</v>
+      </c>
+      <c r="W4">
+        <v>0.2288732394366197</v>
+      </c>
+      <c r="X4">
+        <v>0.06914647037593402</v>
+      </c>
+      <c r="Y4">
+        <v>0.1597267690606857</v>
+      </c>
+      <c r="Z4">
+        <v>1.187290969899666</v>
+      </c>
+      <c r="AA4">
+        <v>0.08372577710013772</v>
+      </c>
+      <c r="AB4">
+        <v>0.04801614783259458</v>
+      </c>
+      <c r="AC4">
+        <v>0.03570962926754314</v>
+      </c>
+      <c r="AD4">
+        <v>262.1</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>16.6</v>
-      </c>
-      <c r="V4">
-        <v>0.07358156028368795</v>
-      </c>
-      <c r="W4">
-        <v>0.1295025728987993</v>
-      </c>
-      <c r="X4">
-        <v>0.05455982927168515</v>
-      </c>
-      <c r="Y4">
-        <v>0.07494274362711417</v>
-      </c>
-      <c r="Z4">
-        <v>1.181038876198043</v>
-      </c>
-      <c r="AA4">
-        <v>0.1222945016829607</v>
-      </c>
-      <c r="AB4">
-        <v>0.05261855923811214</v>
-      </c>
-      <c r="AC4">
-        <v>0.06967594244484857</v>
-      </c>
-      <c r="AD4">
-        <v>22.6</v>
-      </c>
-      <c r="AE4">
-        <v>3.868141934147716</v>
-      </c>
       <c r="AF4">
-        <v>26.46814193414772</v>
+        <v>262.1</v>
       </c>
       <c r="AG4">
-        <v>9.868141934147715</v>
+        <v>237.6</v>
       </c>
       <c r="AH4">
-        <v>0.1050039157310981</v>
+        <v>0.4421390013495277</v>
       </c>
       <c r="AI4">
-        <v>0.188966181521788</v>
+        <v>0.6378680944268679</v>
       </c>
       <c r="AJ4">
-        <v>0.04190860747908519</v>
+        <v>0.4180890374802042</v>
       </c>
       <c r="AK4">
-        <v>0.07992460062621606</v>
+        <v>0.6149068322981367</v>
       </c>
       <c r="AL4">
-        <v>1.8</v>
+        <v>2.41</v>
       </c>
       <c r="AM4">
-        <v>1.8</v>
+        <v>2.41</v>
       </c>
       <c r="AN4">
-        <v>1.26073859198929</v>
+        <v>20.63779527559056</v>
       </c>
       <c r="AO4">
-        <v>9.666666666666666</v>
+        <v>4.356846473029045</v>
       </c>
       <c r="AP4">
-        <v>0.5504932463543298</v>
+        <v>18.70866141732284</v>
       </c>
       <c r="AQ4">
-        <v>9.666666666666666</v>
+        <v>4.356846473029045</v>
       </c>
     </row>
   </sheetData>
